--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request1600.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request1600.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3422"/>
+  <dimension ref="A1:C3420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.572</v>
+        <v>19.572</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2697,7 +2697,7 @@
         <v>0.4064</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="207">
@@ -2708,7 +2708,7 @@
         <v>0.9208000000000001</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="208">
@@ -2719,7 +2719,7 @@
         <v>0.2856</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="209">
@@ -2730,7 +2730,7 @@
         <v>0.468</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="210">
@@ -2741,7 +2741,7 @@
         <v>0.1576</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="211">
@@ -2752,7 +2752,7 @@
         <v>0.1624</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="212">
@@ -2763,7 +2763,7 @@
         <v>0.1208</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2774,7 @@
         <v>0.0184</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="214">
@@ -2785,7 +2785,7 @@
         <v>0.26</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="215">
@@ -2796,7 +2796,7 @@
         <v>0.4888</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="216">
@@ -2807,7 +2807,7 @@
         <v>0.4096</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="217">
@@ -2818,7 +2818,7 @@
         <v>0.584</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="218">
@@ -2829,7 +2829,7 @@
         <v>0.8936000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="219">
@@ -2840,7 +2840,7 @@
         <v>0.416</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="220">
@@ -2851,7 +2851,7 @@
         <v>0.4048</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="221">
@@ -2862,7 +2862,7 @@
         <v>0.3256</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="222">
@@ -4314,7 +4314,7 @@
         <v>0.532</v>
       </c>
       <c r="C353" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="354">
@@ -4325,7 +4325,7 @@
         <v>0.376</v>
       </c>
       <c r="C354" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="355">
@@ -4336,7 +4336,7 @@
         <v>0.068</v>
       </c>
       <c r="C355" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="356">
@@ -4347,7 +4347,7 @@
         <v>0.408</v>
       </c>
       <c r="C356" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="357">
@@ -4358,7 +4358,7 @@
         <v>0.804</v>
       </c>
       <c r="C357" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="358">
@@ -4369,7 +4369,7 @@
         <v>0.504</v>
       </c>
       <c r="C358" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="359">
@@ -4380,7 +4380,7 @@
         <v>0.652</v>
       </c>
       <c r="C359" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="360">
@@ -5590,7 +5590,7 @@
         <v>0.048</v>
       </c>
       <c r="C469" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="470">
@@ -5601,7 +5601,7 @@
         <v>1.568</v>
       </c>
       <c r="C470" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="471">
@@ -5612,7 +5612,7 @@
         <v>0.212</v>
       </c>
       <c r="C471" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="472">
@@ -5623,7 +5623,7 @@
         <v>0.244</v>
       </c>
       <c r="C472" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="473">
@@ -5634,7 +5634,7 @@
         <v>0.232</v>
       </c>
       <c r="C473" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="474">
@@ -6811,7 +6811,7 @@
         <v>0.32</v>
       </c>
       <c r="C580" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="581">
@@ -6822,7 +6822,7 @@
         <v>5.704</v>
       </c>
       <c r="C581" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="582">
@@ -6833,7 +6833,7 @@
         <v>0.652</v>
       </c>
       <c r="C582" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="583">
@@ -6844,7 +6844,7 @@
         <v>1.772</v>
       </c>
       <c r="C583" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="584">
@@ -8681,7 +8681,7 @@
         <v>1.0072</v>
       </c>
       <c r="C750" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="751">
@@ -8692,7 +8692,7 @@
         <v>1.1224</v>
       </c>
       <c r="C751" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="752">
@@ -8703,7 +8703,7 @@
         <v>1.9936</v>
       </c>
       <c r="C752" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="753">
@@ -8714,7 +8714,7 @@
         <v>0.09040000000000001</v>
       </c>
       <c r="C753" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="754">
@@ -8725,7 +8725,7 @@
         <v>0.856</v>
       </c>
       <c r="C754" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="755">
@@ -8736,7 +8736,7 @@
         <v>0.6896</v>
       </c>
       <c r="C755" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="756">
@@ -8747,7 +8747,7 @@
         <v>2.4352</v>
       </c>
       <c r="C756" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="757">
@@ -8758,7 +8758,7 @@
         <v>1.42</v>
       </c>
       <c r="C757" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="758">
@@ -8769,7 +8769,7 @@
         <v>0.5168</v>
       </c>
       <c r="C758" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="759">
@@ -9836,7 +9836,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C855" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="856">
@@ -9847,7 +9847,7 @@
         <v>0.2312</v>
       </c>
       <c r="C856" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="857">
@@ -9858,7 +9858,7 @@
         <v>1.2896</v>
       </c>
       <c r="C857" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="858">
@@ -9869,7 +9869,7 @@
         <v>0.6208</v>
       </c>
       <c r="C858" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="859">
@@ -10584,7 +10584,7 @@
         <v>9.5816</v>
       </c>
       <c r="C923" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="924">
@@ -10595,7 +10595,7 @@
         <v>3.924</v>
       </c>
       <c r="C924" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="925">
@@ -10606,7 +10606,7 @@
         <v>7.8856</v>
       </c>
       <c r="C925" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="926">
@@ -11043,7 +11043,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>10.8304</v>
+        <v>6.8112</v>
       </c>
       <c r="C965" t="n">
         <v>2187501</v>
@@ -11054,7 +11054,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C966" t="n">
         <v>2187501</v>
@@ -11065,7 +11065,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>2.752</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C967" t="n">
         <v>2187501</v>
@@ -11076,7 +11076,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>3.7352</v>
+        <v>2.752</v>
       </c>
       <c r="C968" t="n">
         <v>2187501</v>
@@ -11087,7 +11087,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>0.912</v>
+        <v>3.7352</v>
       </c>
       <c r="C969" t="n">
         <v>2187501</v>
@@ -11098,7 +11098,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C970" t="n">
         <v>2187501</v>
@@ -11109,7 +11109,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C971" t="n">
         <v>2187501</v>
@@ -12685,7 +12685,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1114" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1115">
@@ -12696,7 +12696,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1115" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1116">
@@ -12707,7 +12707,7 @@
         <v>1.248</v>
       </c>
       <c r="C1116" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1117">
@@ -12718,7 +12718,7 @@
         <v>1.388</v>
       </c>
       <c r="C1117" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1118">
@@ -12729,7 +12729,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1118" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1119">
@@ -12740,7 +12740,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1119" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1120">
@@ -12751,7 +12751,7 @@
         <v>1.42</v>
       </c>
       <c r="C1120" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1121">
@@ -12762,7 +12762,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1121" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1122">
@@ -13510,7 +13510,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C1189" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1190">
@@ -13521,7 +13521,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1190" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1191">
@@ -13532,7 +13532,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1191" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1192">
@@ -14049,7 +14049,7 @@
         <v>3.924</v>
       </c>
       <c r="C1238" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1239">
@@ -14060,7 +14060,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1239" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1240">
@@ -14453,7 +14453,7 @@
         <v>1273</v>
       </c>
       <c r="B1275" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C1275" t="n">
         <v>3437501</v>
@@ -14464,7 +14464,7 @@
         <v>1274</v>
       </c>
       <c r="B1276" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C1276" t="n">
         <v>3437501</v>
@@ -14475,7 +14475,7 @@
         <v>1275</v>
       </c>
       <c r="B1277" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C1277" t="n">
         <v>3437501</v>
@@ -14486,7 +14486,7 @@
         <v>1276</v>
       </c>
       <c r="B1278" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C1278" t="n">
         <v>3437501</v>
@@ -14497,7 +14497,7 @@
         <v>1277</v>
       </c>
       <c r="B1279" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C1279" t="n">
         <v>3437501</v>
@@ -14508,7 +14508,7 @@
         <v>1278</v>
       </c>
       <c r="B1280" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C1280" t="n">
         <v>3437501</v>
@@ -16073,7 +16073,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1422" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1423">
@@ -16084,7 +16084,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1423" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1424">
@@ -16095,7 +16095,7 @@
         <v>1.248</v>
       </c>
       <c r="C1424" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1425">
@@ -16106,7 +16106,7 @@
         <v>1.388</v>
       </c>
       <c r="C1425" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1426">
@@ -16117,7 +16117,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1426" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1427">
@@ -16128,7 +16128,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1427" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1428">
@@ -16139,7 +16139,7 @@
         <v>1.42</v>
       </c>
       <c r="C1428" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1429">
@@ -16150,7 +16150,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1429" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1430">
@@ -16876,7 +16876,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C1495" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1496">
@@ -16887,7 +16887,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1496" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1497">
@@ -16898,7 +16898,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1497" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1498">
@@ -17415,7 +17415,7 @@
         <v>3.924</v>
       </c>
       <c r="C1544" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1545">
@@ -17426,7 +17426,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1545" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1546">
@@ -17819,7 +17819,7 @@
         <v>1579</v>
       </c>
       <c r="B1581" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C1581" t="n">
         <v>4687501</v>
@@ -17830,7 +17830,7 @@
         <v>1580</v>
       </c>
       <c r="B1582" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C1582" t="n">
         <v>4687501</v>
@@ -17841,7 +17841,7 @@
         <v>1581</v>
       </c>
       <c r="B1583" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C1583" t="n">
         <v>4687501</v>
@@ -17852,7 +17852,7 @@
         <v>1582</v>
       </c>
       <c r="B1584" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C1584" t="n">
         <v>4687501</v>
@@ -17863,7 +17863,7 @@
         <v>1583</v>
       </c>
       <c r="B1585" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C1585" t="n">
         <v>4687501</v>
@@ -17874,7 +17874,7 @@
         <v>1584</v>
       </c>
       <c r="B1586" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C1586" t="n">
         <v>4687501</v>
@@ -19439,7 +19439,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C1728" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1729">
@@ -19450,7 +19450,7 @@
         <v>3.9384</v>
       </c>
       <c r="C1729" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1730">
@@ -19461,7 +19461,7 @@
         <v>1.248</v>
       </c>
       <c r="C1730" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1731">
@@ -19472,7 +19472,7 @@
         <v>1.388</v>
       </c>
       <c r="C1731" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1732">
@@ -19483,7 +19483,7 @@
         <v>0.6896</v>
       </c>
       <c r="C1732" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1733">
@@ -19494,7 +19494,7 @@
         <v>2.4352</v>
       </c>
       <c r="C1733" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1734">
@@ -19505,7 +19505,7 @@
         <v>1.42</v>
       </c>
       <c r="C1734" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1735">
@@ -19516,7 +19516,7 @@
         <v>3.1944</v>
       </c>
       <c r="C1735" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1736">
@@ -20242,7 +20242,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C1801" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1802">
@@ -20253,7 +20253,7 @@
         <v>2.4168</v>
       </c>
       <c r="C1802" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1803">
@@ -20264,7 +20264,7 @@
         <v>1.4144</v>
       </c>
       <c r="C1803" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1804">
@@ -20781,7 +20781,7 @@
         <v>3.924</v>
       </c>
       <c r="C1850" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1851">
@@ -20792,7 +20792,7 @@
         <v>7.8856</v>
       </c>
       <c r="C1851" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1852">
@@ -21185,7 +21185,7 @@
         <v>1885</v>
       </c>
       <c r="B1887" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C1887" t="n">
         <v>5937501</v>
@@ -21196,7 +21196,7 @@
         <v>1886</v>
       </c>
       <c r="B1888" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C1888" t="n">
         <v>5937501</v>
@@ -21207,7 +21207,7 @@
         <v>1887</v>
       </c>
       <c r="B1889" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C1889" t="n">
         <v>5937501</v>
@@ -21218,7 +21218,7 @@
         <v>1888</v>
       </c>
       <c r="B1890" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C1890" t="n">
         <v>5937501</v>
@@ -21229,7 +21229,7 @@
         <v>1889</v>
       </c>
       <c r="B1891" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C1891" t="n">
         <v>5937501</v>
@@ -21240,7 +21240,7 @@
         <v>1890</v>
       </c>
       <c r="B1892" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C1892" t="n">
         <v>5937501</v>
@@ -22805,7 +22805,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2034" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2035">
@@ -22816,7 +22816,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2035" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2036">
@@ -22827,7 +22827,7 @@
         <v>1.248</v>
       </c>
       <c r="C2036" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2037">
@@ -22838,7 +22838,7 @@
         <v>1.388</v>
       </c>
       <c r="C2037" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2038">
@@ -22849,7 +22849,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2038" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2039">
@@ -22860,7 +22860,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2039" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2040">
@@ -22871,7 +22871,7 @@
         <v>1.42</v>
       </c>
       <c r="C2040" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2041">
@@ -22882,7 +22882,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2041" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2042">
@@ -23608,7 +23608,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C2107" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2108">
@@ -23619,7 +23619,7 @@
         <v>2.4168</v>
       </c>
       <c r="C2108" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2109">
@@ -23630,7 +23630,7 @@
         <v>1.4144</v>
       </c>
       <c r="C2109" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2110">
@@ -24147,7 +24147,7 @@
         <v>3.924</v>
       </c>
       <c r="C2156" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="2157">
@@ -24158,7 +24158,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2157" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="2158">
@@ -24551,7 +24551,7 @@
         <v>2191</v>
       </c>
       <c r="B2193" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C2193" t="n">
         <v>7187501</v>
@@ -24562,7 +24562,7 @@
         <v>2192</v>
       </c>
       <c r="B2194" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C2194" t="n">
         <v>7187501</v>
@@ -24573,7 +24573,7 @@
         <v>2193</v>
       </c>
       <c r="B2195" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C2195" t="n">
         <v>7187501</v>
@@ -24584,7 +24584,7 @@
         <v>2194</v>
       </c>
       <c r="B2196" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C2196" t="n">
         <v>7187501</v>
@@ -24595,7 +24595,7 @@
         <v>2195</v>
       </c>
       <c r="B2197" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C2197" t="n">
         <v>7187501</v>
@@ -24606,7 +24606,7 @@
         <v>2196</v>
       </c>
       <c r="B2198" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C2198" t="n">
         <v>7187501</v>
@@ -26171,7 +26171,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2340" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2341">
@@ -26182,7 +26182,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2341" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2342">
@@ -26193,7 +26193,7 @@
         <v>1.248</v>
       </c>
       <c r="C2342" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2343">
@@ -26204,7 +26204,7 @@
         <v>1.388</v>
       </c>
       <c r="C2343" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2344">
@@ -26215,7 +26215,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2344" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2345">
@@ -26226,7 +26226,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2345" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2346">
@@ -26237,7 +26237,7 @@
         <v>1.42</v>
       </c>
       <c r="C2346" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2347">
@@ -26248,7 +26248,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2347" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2348">
@@ -26974,7 +26974,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C2413" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2414">
@@ -26985,7 +26985,7 @@
         <v>2.4168</v>
       </c>
       <c r="C2414" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2415">
@@ -26996,7 +26996,7 @@
         <v>1.4144</v>
       </c>
       <c r="C2415" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2416">
@@ -27513,7 +27513,7 @@
         <v>3.924</v>
       </c>
       <c r="C2462" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2463">
@@ -27524,7 +27524,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2463" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2464">
@@ -27917,7 +27917,7 @@
         <v>2497</v>
       </c>
       <c r="B2499" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C2499" t="n">
         <v>8437501</v>
@@ -27928,7 +27928,7 @@
         <v>2498</v>
       </c>
       <c r="B2500" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C2500" t="n">
         <v>8437501</v>
@@ -27939,7 +27939,7 @@
         <v>2499</v>
       </c>
       <c r="B2501" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C2501" t="n">
         <v>8437501</v>
@@ -27950,7 +27950,7 @@
         <v>2500</v>
       </c>
       <c r="B2502" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C2502" t="n">
         <v>8437501</v>
@@ -27961,7 +27961,7 @@
         <v>2501</v>
       </c>
       <c r="B2503" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C2503" t="n">
         <v>8437501</v>
@@ -27972,7 +27972,7 @@
         <v>2502</v>
       </c>
       <c r="B2504" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C2504" t="n">
         <v>8437501</v>
@@ -29537,7 +29537,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2646" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2647">
@@ -29548,7 +29548,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2647" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2648">
@@ -29559,7 +29559,7 @@
         <v>1.248</v>
       </c>
       <c r="C2648" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2649">
@@ -29570,7 +29570,7 @@
         <v>1.388</v>
       </c>
       <c r="C2649" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2650">
@@ -29581,7 +29581,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2650" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2651">
@@ -29592,7 +29592,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2651" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2652">
@@ -29603,7 +29603,7 @@
         <v>1.42</v>
       </c>
       <c r="C2652" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2653">
@@ -29614,7 +29614,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2653" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2654">
@@ -30340,7 +30340,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C2719" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2720">
@@ -30351,7 +30351,7 @@
         <v>2.4168</v>
       </c>
       <c r="C2720" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2721">
@@ -30362,7 +30362,7 @@
         <v>1.4144</v>
       </c>
       <c r="C2721" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2722">
@@ -30879,7 +30879,7 @@
         <v>3.924</v>
       </c>
       <c r="C2768" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2769">
@@ -30890,7 +30890,7 @@
         <v>7.8856</v>
       </c>
       <c r="C2769" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2770">
@@ -31283,7 +31283,7 @@
         <v>2803</v>
       </c>
       <c r="B2805" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C2805" t="n">
         <v>9687501</v>
@@ -31294,7 +31294,7 @@
         <v>2804</v>
       </c>
       <c r="B2806" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C2806" t="n">
         <v>9687501</v>
@@ -31305,7 +31305,7 @@
         <v>2805</v>
       </c>
       <c r="B2807" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C2807" t="n">
         <v>9687501</v>
@@ -31316,7 +31316,7 @@
         <v>2806</v>
       </c>
       <c r="B2808" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C2808" t="n">
         <v>9687501</v>
@@ -31327,7 +31327,7 @@
         <v>2807</v>
       </c>
       <c r="B2809" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C2809" t="n">
         <v>9687501</v>
@@ -31338,7 +31338,7 @@
         <v>2808</v>
       </c>
       <c r="B2810" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C2810" t="n">
         <v>9687501</v>
@@ -32903,7 +32903,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C2952" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2953">
@@ -32914,7 +32914,7 @@
         <v>3.9384</v>
       </c>
       <c r="C2953" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2954">
@@ -32925,7 +32925,7 @@
         <v>1.248</v>
       </c>
       <c r="C2954" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2955">
@@ -32936,7 +32936,7 @@
         <v>1.388</v>
       </c>
       <c r="C2955" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2956">
@@ -32947,7 +32947,7 @@
         <v>0.6896</v>
       </c>
       <c r="C2956" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2957">
@@ -32958,7 +32958,7 @@
         <v>2.4352</v>
       </c>
       <c r="C2957" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2958">
@@ -32969,7 +32969,7 @@
         <v>1.42</v>
       </c>
       <c r="C2958" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2959">
@@ -32980,7 +32980,7 @@
         <v>3.1944</v>
       </c>
       <c r="C2959" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2960">
@@ -33706,7 +33706,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C3025" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3026">
@@ -33717,7 +33717,7 @@
         <v>2.4168</v>
       </c>
       <c r="C3026" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3027">
@@ -33728,7 +33728,7 @@
         <v>1.4144</v>
       </c>
       <c r="C3027" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3028">
@@ -34245,7 +34245,7 @@
         <v>3.924</v>
       </c>
       <c r="C3074" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="3075">
@@ -34256,7 +34256,7 @@
         <v>7.8856</v>
       </c>
       <c r="C3075" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="3076">
@@ -34649,7 +34649,7 @@
         <v>3109</v>
       </c>
       <c r="B3111" t="n">
-        <v>8.913600000000001</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C3111" t="n">
         <v>10937501</v>
@@ -34660,7 +34660,7 @@
         <v>3110</v>
       </c>
       <c r="B3112" t="n">
-        <v>0.3992000000000001</v>
+        <v>3.944</v>
       </c>
       <c r="C3112" t="n">
         <v>10937501</v>
@@ -34671,7 +34671,7 @@
         <v>3111</v>
       </c>
       <c r="B3113" t="n">
-        <v>7.4152</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C3113" t="n">
         <v>10937501</v>
@@ -34682,7 +34682,7 @@
         <v>3112</v>
       </c>
       <c r="B3114" t="n">
-        <v>0.912</v>
+        <v>7.4152</v>
       </c>
       <c r="C3114" t="n">
         <v>10937501</v>
@@ -34693,7 +34693,7 @@
         <v>3113</v>
       </c>
       <c r="B3115" t="n">
-        <v>2.8864</v>
+        <v>0.912</v>
       </c>
       <c r="C3115" t="n">
         <v>10937501</v>
@@ -34704,7 +34704,7 @@
         <v>3114</v>
       </c>
       <c r="B3116" t="n">
-        <v>22.9216</v>
+        <v>25.8832</v>
       </c>
       <c r="C3116" t="n">
         <v>10937501</v>
@@ -36269,7 +36269,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="C3258" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3259">
@@ -36280,7 +36280,7 @@
         <v>3.9384</v>
       </c>
       <c r="C3259" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3260">
@@ -36291,7 +36291,7 @@
         <v>1.248</v>
       </c>
       <c r="C3260" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3261">
@@ -36302,7 +36302,7 @@
         <v>1.388</v>
       </c>
       <c r="C3261" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3262">
@@ -36313,7 +36313,7 @@
         <v>0.6896</v>
       </c>
       <c r="C3262" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3263">
@@ -36324,7 +36324,7 @@
         <v>2.4352</v>
       </c>
       <c r="C3263" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3264">
@@ -36335,7 +36335,7 @@
         <v>1.42</v>
       </c>
       <c r="C3264" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3265">
@@ -36346,7 +36346,7 @@
         <v>3.1944</v>
       </c>
       <c r="C3265" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3266">
@@ -37072,7 +37072,7 @@
         <v>0.3952000000000001</v>
       </c>
       <c r="C3331" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3332">
@@ -37083,7 +37083,7 @@
         <v>2.4168</v>
       </c>
       <c r="C3332" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3333">
@@ -37094,7 +37094,7 @@
         <v>1.4144</v>
       </c>
       <c r="C3333" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3334">
@@ -37611,7 +37611,7 @@
         <v>3.924</v>
       </c>
       <c r="C3380" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="3381">
@@ -37622,7 +37622,7 @@
         <v>7.8856</v>
       </c>
       <c r="C3381" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="3382">
@@ -37949,7 +37949,7 @@
         <v>3409</v>
       </c>
       <c r="B3411" t="n">
-        <v>7.9048</v>
+        <v>3.9232</v>
       </c>
       <c r="C3411" t="n">
         <v>12187501</v>
@@ -37960,7 +37960,7 @@
         <v>3410</v>
       </c>
       <c r="B3412" t="n">
-        <v>7.852</v>
+        <v>3.8872</v>
       </c>
       <c r="C3412" t="n">
         <v>12187501</v>
@@ -37971,7 +37971,7 @@
         <v>3411</v>
       </c>
       <c r="B3413" t="n">
-        <v>8.913600000000001</v>
+        <v>7.852</v>
       </c>
       <c r="C3413" t="n">
         <v>12187501</v>
@@ -37982,7 +37982,7 @@
         <v>3412</v>
       </c>
       <c r="B3414" t="n">
-        <v>0.9392</v>
+        <v>7.9344</v>
       </c>
       <c r="C3414" t="n">
         <v>12187501</v>
@@ -37993,7 +37993,7 @@
         <v>3413</v>
       </c>
       <c r="B3415" t="n">
-        <v>6.9184</v>
+        <v>0.8848</v>
       </c>
       <c r="C3415" t="n">
         <v>12187501</v>
@@ -38004,7 +38004,7 @@
         <v>3414</v>
       </c>
       <c r="B3416" t="n">
-        <v>1.8264</v>
+        <v>0.9408000000000001</v>
       </c>
       <c r="C3416" t="n">
         <v>12187501</v>
@@ -38015,7 +38015,7 @@
         <v>3415</v>
       </c>
       <c r="B3417" t="n">
-        <v>8.913600000000001</v>
+        <v>6.8288</v>
       </c>
       <c r="C3417" t="n">
         <v>12187501</v>
@@ -38026,7 +38026,7 @@
         <v>3416</v>
       </c>
       <c r="B3418" t="n">
-        <v>0.3992000000000001</v>
+        <v>1.7352</v>
       </c>
       <c r="C3418" t="n">
         <v>12187501</v>
@@ -38037,7 +38037,7 @@
         <v>3417</v>
       </c>
       <c r="B3419" t="n">
-        <v>7.4152</v>
+        <v>4.894400000000001</v>
       </c>
       <c r="C3419" t="n">
         <v>12187501</v>
@@ -38048,31 +38048,9 @@
         <v>3418</v>
       </c>
       <c r="B3420" t="n">
-        <v>0.912</v>
+        <v>19.3496</v>
       </c>
       <c r="C3420" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="3421">
-      <c r="A3421" s="1" t="n">
-        <v>3419</v>
-      </c>
-      <c r="B3421" t="n">
-        <v>2.8864</v>
-      </c>
-      <c r="C3421" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="3422">
-      <c r="A3422" s="1" t="n">
-        <v>3420</v>
-      </c>
-      <c r="B3422" t="n">
-        <v>19.3496</v>
-      </c>
-      <c r="C3422" t="n">
         <v>12187501</v>
       </c>
     </row>
